--- a/H38R00/Released/BOM/H38R00.xlsx
+++ b/H38R00/Released/BOM/H38R00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hexabitz_Github\Hardware\H38R0x-Hardware\H38R00\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E195928-A170-4B84-B1AE-93CD0D9DCC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DECC6EF-12AA-41CA-BD36-394BC269B4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="206">
   <si>
     <t>Qty</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>5.6pF 50V</t>
+  </si>
+  <si>
+    <t>LM5160DNTT</t>
   </si>
 </sst>
 </file>
@@ -1132,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2118,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>5</v>
